--- a/data_dictionary_template.xlsx
+++ b/data_dictionary_template.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B454E7-A8D7-404C-A8A0-A4AF8052615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2AB39-EAAB-4B40-A9B8-CD863AE80C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A411F62C-69E6-4132-9420-47BA5D60E3F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A411F62C-69E6-4132-9420-47BA5D60E3F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="MOVIES_SCHEMA" sheetId="8" r:id="rId1"/>
-    <sheet name="THEATERS_SCHEMA" sheetId="9" r:id="rId2"/>
-    <sheet name="Lists" sheetId="6" r:id="rId3"/>
-    <sheet name="Column Descriptions" sheetId="7" r:id="rId4"/>
+    <sheet name="MOVIES" sheetId="8" r:id="rId1"/>
+    <sheet name="THEATERS" sheetId="9" r:id="rId2"/>
+    <sheet name="SHOWTIMES" sheetId="11" r:id="rId3"/>
+    <sheet name="Data_Integrity" sheetId="10" r:id="rId4"/>
+    <sheet name="Lists" sheetId="6" r:id="rId5"/>
+    <sheet name="Column Descriptions" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data_Integrity!$A$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
   <si>
     <t>field_name</t>
   </si>
@@ -155,814 +160,918 @@
     <t>synopsis</t>
   </si>
   <si>
-    <t>"['Drama',
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <r>
+      <t>^\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{5}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>^\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a-zA-Z0-9_.+-]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a-zA-Z0-9-]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a-zA-Z0-9-.]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>^\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1,2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{4}|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+  </si>
+  <si>
+    <t>Column or field name, case sensitive</t>
+  </si>
+  <si>
+    <t>Denotes when a column is required per schema</t>
+  </si>
+  <si>
+    <t>Denotes a primary key or unique value column/field</t>
+  </si>
+  <si>
+    <t>Integer representing string max length allowed</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free text column for documenting additional column information.  This column is not used by the script and any additional columns will be ignored as well. </t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required Columns:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All columns must be present for schema_vaildata to recognize sheets as schemas/ data dictionaries</t>
+    </r>
+  </si>
+  <si>
+    <t>Primary Table</t>
+  </si>
+  <si>
+    <t>SQL Error Query</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>rated</t>
+  </si>
+  <si>
+    <t>['US',
+ 'CA']</t>
+  </si>
+  <si>
+    <t>Foreign Key to movies.id</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Star rating (1=Poor, 5=Excellent)</t>
+  </si>
+  <si>
+    <t>showtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Key to theaters.tid </t>
+  </si>
+  <si>
+    <t>The date and time of the showing start</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>['G',
+ 'PG',
+ 'PG-13',
+ 'R',
+ 'NC-17',
+ '14A',
+ '18A',
+ 'A]</t>
+  </si>
+  <si>
+    <t>Some ratings used in the US and Canada</t>
+  </si>
+  <si>
+    <t>SHOWTIMES</t>
+  </si>
+  <si>
+    <t>(SHOWTIMES) The query identified showing linked to theaters in the US that are showing a movie with a Non-Standard Rating.</t>
+  </si>
+  <si>
+    <t>error_level</t>
+  </si>
+  <si>
+    <t>(SHOWTIMES) The query identified showing linked to theaters in the Canada that are showing a movie with a Non-Standard Rating.</t>
+  </si>
+  <si>
+    <t>SELECT
+    t1.movie_id,
+    t2.title AS movie_title,
+    t2.rated,
+    t3.*
+FROM
+    SHOWTIMES t1
+LEFT JOIN
+    MOVIES t2 ON t1.movie_id = t2.id
+LEFT JOIN
+    THEATERS t3 ON t1.theater_id = t3.tid
+WHERE
+    t2.rated NOT IN ('G', 'PG', 'PG-13', 'R', 'NC-17')
+AND
+    t3.country = 'US'</t>
+  </si>
+  <si>
+    <t>SELECT
+    t1.movie_id,
+    t2.title AS movie_title,
+    t2.rated,
+    t3.*
+FROM
+    SHOWTIMES t1
+LEFT JOIN
+    MOVIES t2 ON t1.movie_id = t2.id
+LEFT JOIN
+    THEATERS t3 ON t1.theater_id = t3.tid
+WHERE
+    t2.rated IN ('PG-13', 'NC-17')
+AND
+    t3.country = 'CA'</t>
+  </si>
+  <si>
+    <t>['Drama',
  'Action',
  'Comedy',
- 'Sci-Fi']"</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>['US',
- 'CA',
- 'UK',
- 'AU',
-'NZ']</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <r>
-      <t>^\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{5}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(?:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{4}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>^\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a-zA-Z0-9_.+-]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a-zA-Z0-9-]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a-zA-Z0-9-.]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>^\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(?:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1,2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[-.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{4}|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF56B6C2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{4}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)\s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-  </si>
-  <si>
-    <t>Column or field name, case sensitive</t>
-  </si>
-  <si>
-    <t>Denotes when a column is required per schema</t>
-  </si>
-  <si>
-    <t>Denotes a primary key or unique value column/field</t>
-  </si>
-  <si>
-    <t>Integer representing string max length allowed</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free text column for documenting additional column information.  This column is not used by the script and any additional columns will be ignored as well. </t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Required Columns:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All columns must be present for schema_vaildata to recognize sheets as schemas/ data dictionaries</t>
-    </r>
+ 'Sci-Fi', Other]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1159,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ADLaM Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1083,7 +1236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1339,12 +1492,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1376,25 +1581,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,12 +1629,95 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1449,6 +1728,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1748,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE7144A-06F2-4903-AA7E-C1568298D9AA}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1767,7 +2050,7 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1802,12 +2085,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1934,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -1994,7 +2277,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -2015,17 +2298,46 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>500</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{5A3DB596-EC5A-4B35-9610-F2E4161CA6F7}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{5A3DB596-EC5A-4B35-9610-F2E4161CA6F7}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{3476A79C-E820-4165-8730-79329A984A3B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{3476A79C-E820-4165-8730-79329A984A3B}">
       <formula1>0</formula1>
       <formula2>18446744073709500000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9" xr:uid="{D916072E-BB80-424D-A4AB-B1812C5081A7}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10" xr:uid="{D916072E-BB80-424D-A4AB-B1812C5081A7}">
       <formula1>0</formula1>
       <formula2>18446744073709500000</formula2>
     </dataValidation>
@@ -2039,25 +2351,25 @@
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I9</xm:sqref>
+          <xm:sqref>I2:I10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4D826BF-593E-4368-9C69-D8A4C40B6894}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D9</xm:sqref>
+          <xm:sqref>D2:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B47C8FB-2882-401C-A1EF-1706925D57EB}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9959FF92-4D73-4BBA-98D5-E5E1C0124CEF}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9</xm:sqref>
+          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2067,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B509C83-C109-4026-9E95-FB776DC1CC9E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2122,12 +2434,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -2154,7 +2466,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
@@ -2179,7 +2491,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
@@ -2240,67 +2552,63 @@
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="J6" s="13"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>11</v>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>10</v>
@@ -2312,22 +2620,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>10</v>
@@ -2336,15 +2644,42 @@
         <v>11</v>
       </c>
       <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G9" xr:uid="{B66FD9AB-D84E-4B25-A66B-852D53BD5DB1}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G10" xr:uid="{B66FD9AB-D84E-4B25-A66B-852D53BD5DB1}">
       <formula1>0</formula1>
       <formula2>18446744073709500000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{9355CEFC-A834-495B-97A3-FEFAEE42C1CB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{9355CEFC-A834-495B-97A3-FEFAEE42C1CB}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
@@ -2358,25 +2693,25 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D9</xm:sqref>
+          <xm:sqref>D2:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{348D44C1-42C1-4871-9E52-E97F45917F37}">
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I9</xm:sqref>
+          <xm:sqref>I2:I10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC5BD514-7D39-4C30-97B7-A5AB3EF1DAEA}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9C9B961-0C83-4EA1-8E3A-20557E998874}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9</xm:sqref>
+          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2385,8 +2720,337 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A149F4-6734-49C5-903E-51BC66BC8A90}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>9999999</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{1364DC23-7C43-4A0C-A72F-E4CEEC4DF944}">
+      <formula1>0</formula1>
+      <formula2>18446744073709500000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3 F2" xr:uid="{198F6A4D-A3D8-44B2-95C6-03FC62F8F563}">
+      <formula1>0</formula1>
+      <formula2>18446744073709500000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{D39D78E5-DFAA-4AFB-99FE-0792DD737382}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6951A34B-4252-4D38-93D9-ED0B4AD89529}">
+          <x14:formula1>
+            <xm:f>Lists!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F008A23-3116-4E5C-BDC2-60B68FA4E082}">
+          <x14:formula1>
+            <xm:f>Lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{754E8EDA-1BEF-4FEA-9003-4DCB51C42ADE}">
+          <x14:formula1>
+            <xm:f>Lists!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BE01485-1B6F-4CE7-A979-43B4F4F1E0E0}">
+          <x14:formula1>
+            <xm:f>Lists!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F37043-4917-4963-87D6-94071C2EEBF4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="281.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" ht="281.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E2" xr:uid="{4731B43D-17F0-46E3-A8FA-556BAF9DCEA3}"/>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Error"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{497D0215-465D-4DAC-90A3-E655DD8E2C04}">
+          <x14:formula1>
+            <xm:f>Lists!$J$2:$J$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15DB786-A4BF-43CA-8439-8EF75E48730A}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2404,9 +3068,10 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2434,8 +3099,11 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2448,8 +3116,11 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2462,26 +3133,32 @@
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -2490,7 +3167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A441B5-D844-4857-B3E5-4EAD4026DBC2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2508,149 +3185,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="21">
+        <v>9</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="22">
-        <v>9</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2690,4 +3367,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{568178ef-2b90-40ee-86de-4595a529cba9}" enabled="1" method="Standard" siteId="{d6cff1bd-67dd-4ce8-945d-d07dc775672f}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>